--- a/Coverage/Coverage_Output_Rainier/Coverage_Rainier.xlsx
+++ b/Coverage/Coverage_Output_Rainier/Coverage_Rainier.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\Output_Coverage_EXP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\Coverage\Coverage_Output_Rainier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD933D-7CEC-4163-9510-0C68590E7876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5EED5-E315-4CAB-BFB9-E4610D98F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B764329-F539-46CD-A2FC-0E65D9CBAC5A}"/>
+    <workbookView minimized="1" xWindow="-20835" yWindow="13785" windowWidth="14385" windowHeight="7845" xr2:uid="{3B764329-F539-46CD-A2FC-0E65D9CBAC5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -122,6 +119,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TX Windows at Mount Rainier, WA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -458,6 +480,7 @@
         <c:crossAx val="1262132544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1086,212 +1109,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1">
-            <v>0</v>
-          </cell>
-          <cell r="E1">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.125</v>
-          </cell>
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.25</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.29166666666666669</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="E9">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0.375</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>0.41666666666666669</v>
-          </cell>
-          <cell r="E11">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0.5</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>0.54166666666666663</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>0.58333333333333337</v>
-          </cell>
-          <cell r="E15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>0.625</v>
-          </cell>
-          <cell r="E16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>0.66666666666666663</v>
-          </cell>
-          <cell r="E17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>0.70833333333333337</v>
-          </cell>
-          <cell r="E18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>0.75</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>0.79166666666666663</v>
-          </cell>
-          <cell r="E20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>0.83333333333333337</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>0.875</v>
-          </cell>
-          <cell r="E22">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0.91666666666666663</v>
-          </cell>
-          <cell r="E23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>0.95833333333333337</v>
-          </cell>
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,7 +1411,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
